--- a/test_data/plan_configurationFixed.xlsx
+++ b/test_data/plan_configurationFixed.xlsx
@@ -1,39 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\LaubscherUsachCode-master\test_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346EC678-6CF8-4C57-AF8C-DCA8E414A920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1749" yWindow="1749" windowWidth="15317" windowHeight="8382" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Speed" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Target" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Metadata" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Speed" sheetId="1" r:id="rId1"/>
+    <sheet name="Target" sheetId="2" r:id="rId2"/>
+    <sheet name="Metadata" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Minimum %</t>
+  </si>
+  <si>
+    <t>Maximum %</t>
+  </si>
+  <si>
+    <t>Speed t/d/m²</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Target t</t>
+  </si>
+  <si>
+    <t>Incorporation blocks</t>
+  </si>
+  <si>
+    <t>Duration days</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Panel A</t>
+  </si>
+  <si>
+    <t>Number of periods</t>
+  </si>
+  <si>
+    <t>Speed discretization</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -52,81 +99,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -414,56 +402,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Minimum %</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Maximum %</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Speed t/d/m²</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>30</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.15</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>30</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>70</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>70</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -472,66 +461,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Period</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Target t</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Incorporation blocks</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Duration days</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1000000</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>360</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2000000</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>20</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>360</v>
       </c>
     </row>
@@ -541,49 +516,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Panel A</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Number of periods</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Speed discretization</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/plan_configurationFixed.xlsx
+++ b/test_data/plan_configurationFixed.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\LaubscherUsachCode-master\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\OneDrive\Documents\GitHub\LaubscherUsachCode-master\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346EC678-6CF8-4C57-AF8C-DCA8E414A920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDCA911-49B7-462F-B5C2-38835EB06366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1749" yWindow="1749" windowWidth="15317" windowHeight="8382" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Speed" sheetId="1" r:id="rId1"/>
     <sheet name="Target" sheetId="2" r:id="rId2"/>
     <sheet name="Metadata" sheetId="3" r:id="rId3"/>
+    <sheet name="Dataset" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Minimum %</t>
   </si>
@@ -58,13 +59,31 @@
   </si>
   <si>
     <t>Density</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Number of Summation datasets</t>
+  </si>
+  <si>
+    <t>Number of Average datasets</t>
+  </si>
+  <si>
+    <t>Summation</t>
+  </si>
+  <si>
+    <t>Cut</t>
+  </si>
+  <si>
+    <t>Mo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +95,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,9 +125,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,7 +439,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
@@ -466,7 +496,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
@@ -517,13 +547,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
@@ -557,7 +587,64 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118F63AF-7A03-4E52-AD49-E34E348FF66D}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="7.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/test_data/plan_configurationFixed.xlsx
+++ b/test_data/plan_configurationFixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\OneDrive\Documents\GitHub\LaubscherUsachCode-master\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\LaubscherUsachCode-master\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDCA911-49B7-462F-B5C2-38835EB06366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0539EDE6-5D89-43D5-9397-B9A2DD83F634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Speed" sheetId="1" r:id="rId1"/>
@@ -492,9 +492,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -534,9 +536,79 @@
         <v>2000000</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2000000</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2000000</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2000000</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2000000</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2000000</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
         <v>360</v>
       </c>
     </row>
@@ -549,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -571,7 +643,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -612,7 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118F63AF-7A03-4E52-AD49-E34E348FF66D}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
